--- a/Classifier2/result_reduced.xlsx
+++ b/Classifier2/result_reduced.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$C$1558</definedName>
@@ -459,7 +460,7 @@
   <dimension ref="A1:V1558"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" activeCellId="1" sqref="E1:V1048576 G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -94965,4 +94966,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>